--- a/biology/Médecine/Teinture_officinale/Teinture_officinale.xlsx
+++ b/biology/Médecine/Teinture_officinale/Teinture_officinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une teinture officinale est une solution médicamenteuse obtenue par action prolongée de l'alcool sur des substances végétales ou animales le plus souvent desséchées[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une teinture officinale est une solution médicamenteuse obtenue par action prolongée de l'alcool sur des substances végétales ou animales le plus souvent desséchées. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On donne en pharmacie le nom de teintures alcooliques à l'alcool chargé des principes actifs d'une ou plusieurs substances médicamenteuses de nature végétale ou animale.
 Ces préparations partageaient jadis avec les alcoolats les noms empiriques de baumes, d'élixirs, de gouttes, de quintessences, etc. Aujourd'hui ces dénominations sont complètement bannies des ouvrages dogmatiques, il en devrait être ainsi du mot impropre de teinture, qui, sans rien apprendre sur la composition de ces médicaments, présente une idée fausse à l'esprit. En effet, le mot teinture comporte avec lui une idée de couleur, et cependant plusieurs de ces préparations sont incolores : telles sont celles de térébenthine, de copahu, etc. Alcoolé est le seul nom qui devrait figurer dans une nomenclature méthodique, pour désigner les médicaments qui nous occupent.[non neutre][réf. nécessaire]
-Les éléments des teintures sont toutes les substances de la matière médicale susceptibles de céder quelques principes à l'alcool, et ce dernier fluide[2].
-Assez utilisée autrefois, on n'en trouve plus guère actuellement[3].
+Les éléments des teintures sont toutes les substances de la matière médicale susceptibles de céder quelques principes à l'alcool, et ce dernier fluide.
+Assez utilisée autrefois, on n'en trouve plus guère actuellement.
 </t>
         </is>
       </c>
@@ -545,14 +559,51 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On distingue :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue :
 teinture simple : obtenue à partir d'une seule substance médicamenteuse ;
 teinture composée : obtenue à partir de plusieurs substances médicamenteuses.
-Les teintures suivantes figuraient dans le codex des officines en 1844[2] :
-Teintures simples
-Teinture d'acétate de fer
+Les teintures suivantes figuraient dans le codex des officines en 1844 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Teinture_officinale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Teinture_officinale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Teintures simples</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Teinture d'acétate de fer
 Teinture d'airelle, de reis
 Teinture d'aloes
 Teinture d'arnica
@@ -569,9 +620,43 @@
 Teinture de seigle ergoté
 Teinture de succin
 Teinture de suie
-Teinture de Wilson
-Teintures composées
-Teinture d'absinthe composée
+Teinture de Wilson</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Teinture_officinale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Teinture_officinale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Teintures composées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Teinture d'absinthe composée
 Teinture d'acétique d'opium
 Teinture d'acore composée
 Teinture d'antigoutteuse de pradier[Quoi ?]
@@ -595,64 +680,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Teinture_officinale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Teinture_officinale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Préparée à partir de la plante sèche. Chaque plante bénéficiait d'un mode de préparation particulier, par macération à froid le plus souvent, quelquefois à chaud, dans l'alcool éthylique dont le degré varie de 45 à 70°.
 Rapport d'extraction = 1:5, soit 5 grammes de teinture correspondent à 1 gramme de la drogue sèche.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Teinture_officinale</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Teinture_officinale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>En homéopathie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En homéopathie, une teinture-mère est une teinture très concentrée utilisée pour la préparation des dilutions. Une goutte de teinture-mère du médicament à préparer et 99 gouttes de solvant (alcool ou eau) sont mélangées[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En homéopathie, une teinture-mère est une teinture très concentrée utilisée pour la préparation des dilutions. Une goutte de teinture-mère du médicament à préparer et 99 gouttes de solvant (alcool ou eau) sont mélangées.
 </t>
         </is>
       </c>
